--- a/GradesCalculator/DB/GradesDatabase6300-grades.xlsx
+++ b/GradesCalculator/DB/GradesDatabase6300-grades.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="3" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Project 3</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Attendance</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Assignment 3</t>
+  </si>
+  <si>
+    <t>GTID</t>
   </si>
 </sst>
 </file>
@@ -148,9 +148,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,7 +236,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="48">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -257,6 +259,7 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -279,6 +282,7 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -611,9 +615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -624,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" customHeight="1">
@@ -774,7 +778,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -787,16 +791,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1">
@@ -1040,7 +1044,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1052,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -1303,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
